--- a/sliderControl.xlsx
+++ b/sliderControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsdav\Documents\Data\DataSmart_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B378B3EE-BB02-459A-916E-DC66C1C72CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5327E-E38A-4E45-A3BD-4D2BDAADEFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AA36A539-BF00-4064-8EE3-57F6843D7721}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="31" fmlaLink="D3" horiz="1" max="50" page="10" val="50"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="31" fmlaLink="D3" horiz="1" max="50" page="10" val="34"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,12 +514,12 @@
     <row r="2" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D2" s="1">
         <f>D3/10</f>
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D3">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
